--- a/tongubako/cnnbs/master_data.xlsx
+++ b/tongubako/cnnbs/master_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tongubako\tongubako\cnnbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFE959B-38C5-4EAA-AF3D-062489E728DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96979776-EA85-4D9D-A0AF-92E55014AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4B9874B8-EC3C-42F1-8543-D67D4CF21F82}"/>
+    <workbookView xWindow="-28908" yWindow="-1236" windowWidth="29016" windowHeight="15696" xr2:uid="{4B9874B8-EC3C-42F1-8543-D67D4CF21F82}"/>
   </bookViews>
   <sheets>
     <sheet name="data_list" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
